--- a/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
@@ -525,6 +525,9 @@
         <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
 （dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -586,7 +589,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081010612122020120</v>
+        <v>0810106121220201212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,9 +529,170 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F15" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>483_圣诞花_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>4</v>
+      </c>
+      <c r="C26" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F29" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>5</v>
+      </c>
+      <c r="C30" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -589,7 +750,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0810106121220201212</v>
+        <v>081010612122020121215105171010111510510101010301918130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
@@ -689,6 +689,9 @@
       <c r="C30" t="str">
         <v>504_大花葱_Allium _undefined_1bunch</v>
       </c>
+      <c r="F30" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -750,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081010612122020121215105171010111510510101010301918130</v>
+        <v>081010612122020121215105171010111510510101010301918131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
@@ -690,7 +690,7 @@
         <v>504_大花葱_Allium _undefined_1bunch</v>
       </c>
       <c r="F30" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081010612122020121215105171010111510510101010301918131</v>
+        <v>0810106121220201212151051710101115105101010103019181315</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-20.xlsx
@@ -755,6 +755,9 @@
       <c r="G2" t="str">
         <v>0810106121220201212151051710101115105101010103019181315</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
